--- a/results/birth/SEED_314/result.xlsx
+++ b/results/birth/SEED_314/result.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,18 @@
       <c r="AH1" s="1" t="n"/>
       <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>BOUNDARY</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -723,6 +735,46 @@
           <t>0.20</t>
         </is>
       </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -848,6 +900,30 @@
       </c>
       <c r="AJ4" t="n">
         <v>2319.617672640482</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>383.1023151906331</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>386.3325114313761</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>392.373773021698</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>391.0664524650574</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>401.8060641860962</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>405.8325726763408</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>465.6313930575053</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>564.4294561258952</v>
       </c>
     </row>
     <row r="5">
@@ -959,6 +1035,30 @@
       <c r="AJ5" t="n">
         <v>2445.000389575673</v>
       </c>
+      <c r="AK5" t="n">
+        <v>490.2629962789269</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>495.4276808743702</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>502.0055808490563</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>499.1427309591197</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>521.6158783918642</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>509.0743864712236</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>592.0152907778793</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>721.2074289555613</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -983,7 +1083,7 @@
         <v>0.9991090170147924</v>
       </c>
       <c r="H6" t="n">
-        <v>0.999050546468253</v>
+        <v>0.9990505464682528</v>
       </c>
       <c r="I6" t="n">
         <v>0.9990008912234218</v>
@@ -992,7 +1092,7 @@
         <v>0.9987199569502354</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9985619634325856</v>
+        <v>0.9985619634325859</v>
       </c>
       <c r="L6" t="n">
         <v>0.9970700045696383</v>
@@ -1019,7 +1119,7 @@
         <v>0.998756163236778</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9975501151841629</v>
+        <v>0.9975501151841627</v>
       </c>
       <c r="U6" t="n">
         <v>0.9988818364770289</v>
@@ -1046,7 +1146,7 @@
         <v>0.9827291340458114</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.9988626594988412</v>
+        <v>0.9988626594988415</v>
       </c>
       <c r="AD6" t="n">
         <v>0.9984707090555065</v>
@@ -1058,16 +1158,40 @@
         <v>0.9973961108902664</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.9967461276332029</v>
+        <v>0.9967461276332034</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.9950072733341896</v>
+        <v>0.9950072733341898</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.992459766745862</v>
+        <v>0.9924597667458618</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.9798886398362774</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.9991674931885181</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.9991509824837742</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.9991365178272575</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.9991244010732634</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9990247489845747</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.9990994162118598</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.9987554554869923</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.998162011269959</v>
       </c>
     </row>
     <row r="7">
@@ -1182,6 +1306,30 @@
       </c>
       <c r="AJ7" t="n">
         <v>1985.183293183645</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>370.3934350649516</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>372.6032810401916</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>379.8744000562032</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>387.8404699516296</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>390.8763733609517</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>458.6322962760925</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>472.8261692492167</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>665.7321542930603</v>
       </c>
     </row>
     <row r="8">
@@ -1293,6 +1441,30 @@
       <c r="AJ8" t="n">
         <v>2029.499660576448</v>
       </c>
+      <c r="AK8" t="n">
+        <v>484.8727072655358</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>489.7849810900284</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>496.964290138574</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>497.0586226283393</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>500.7750292329047</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>574.6016949385179</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>600.4894722591896</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>831.3046039408679</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -1305,10 +1477,10 @@
         <v>0.9992022856744117</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9991508556045916</v>
+        <v>0.9991508556045917</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9991506278049967</v>
+        <v>0.9991506278049966</v>
       </c>
       <c r="F9" t="n">
         <v>0.9990888847335446</v>
@@ -1329,25 +1501,25 @@
         <v>0.9981417041419006</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9952898719064711</v>
+        <v>0.9952898719064709</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9991506278049967</v>
+        <v>0.9991506278049966</v>
       </c>
       <c r="N9" t="n">
         <v>0.9990881071531731</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9990136185314766</v>
+        <v>0.9990136185314769</v>
       </c>
       <c r="P9" t="n">
         <v>0.9989263149324814</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9988283505152304</v>
+        <v>0.9988283505152307</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9985745158613826</v>
+        <v>0.9985745158613824</v>
       </c>
       <c r="S9" t="n">
         <v>0.9979963068444092</v>
@@ -1356,7 +1528,7 @@
         <v>0.9950494913901724</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9990191256829544</v>
+        <v>0.9990191256829541</v>
       </c>
       <c r="V9" t="n">
         <v>0.9987967039376698</v>
@@ -1371,7 +1543,7 @@
         <v>0.9978794557020584</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.9967828838849239</v>
+        <v>0.9967828838849236</v>
       </c>
       <c r="AA9" t="n">
         <v>0.9953162566006016</v>
@@ -1380,13 +1552,13 @@
         <v>0.9856679422146919</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.9989831240878906</v>
+        <v>0.9989831240878908</v>
       </c>
       <c r="AD9" t="n">
         <v>0.998714717263714</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.998396427112672</v>
+        <v>0.9983964271126717</v>
       </c>
       <c r="AF9" t="n">
         <v>0.998028350670307</v>
@@ -1402,6 +1574,30 @@
       </c>
       <c r="AJ9" t="n">
         <v>0.9841009063766849</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.9991923532698864</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.9991651103922494</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9991402639451001</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.9991474490417931</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9991561364028338</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.9988542530996758</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.9987415250533545</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.9973933839876078</v>
       </c>
     </row>
     <row r="10">
@@ -1516,6 +1712,30 @@
       </c>
       <c r="AJ10" t="n">
         <v>2140.724299125671</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>305.3789920997619</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>312.5076346143087</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>318.2210095659892</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>329.9936900393168</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>355.7949362881978</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>408.0614822705587</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>413.5686668078105</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>643.0573875713349</v>
       </c>
     </row>
     <row r="11">
@@ -1627,6 +1847,30 @@
       <c r="AJ11" t="n">
         <v>2188.382266974865</v>
       </c>
+      <c r="AK11" t="n">
+        <v>416.8893104573613</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>426.0453997390265</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>429.2889126112187</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>427.7417020012782</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>478.4552467500266</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>525.4992721913908</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>563.9345859192189</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>817.6874174168767</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1636,7 +1880,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9993617696409692</v>
+        <v>0.9993617696409695</v>
       </c>
       <c r="D12" t="n">
         <v>0.9994120919818551</v>
@@ -1645,13 +1889,13 @@
         <v>0.9992310705120252</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9992456130615983</v>
+        <v>0.9992456130615981</v>
       </c>
       <c r="G12" t="n">
         <v>0.999246245050343</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9992331020769407</v>
+        <v>0.9992331020769409</v>
       </c>
       <c r="I12" t="n">
         <v>0.9992063679245295</v>
@@ -1660,34 +1904,34 @@
         <v>0.9990794899601149</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9988721190136411</v>
+        <v>0.9988721190136414</v>
       </c>
       <c r="L12" t="n">
         <v>0.9973127833491836</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9993837478029672</v>
+        <v>0.999383747802967</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9993956324437533</v>
+        <v>0.9993956324437535</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9993946161303721</v>
+        <v>0.9993946161303718</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9993770742595571</v>
+        <v>0.9993770742595574</v>
       </c>
       <c r="Q12" t="n">
         <v>0.9993438793982773</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9992429469063331</v>
+        <v>0.9992429469063333</v>
       </c>
       <c r="S12" t="n">
         <v>0.9990214104313383</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9974327371754076</v>
+        <v>0.9974327371754078</v>
       </c>
       <c r="U12" t="n">
         <v>0.9991802116892028</v>
@@ -1705,19 +1949,19 @@
         <v>0.9979490702474695</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.996757184973973</v>
+        <v>0.9967571849739728</v>
       </c>
       <c r="AA12" t="n">
         <v>0.9952448046551882</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.986861207733907</v>
+        <v>0.9868612077339067</v>
       </c>
       <c r="AC12" t="n">
         <v>0.9991142460234568</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.9987828975885489</v>
+        <v>0.9987828975885487</v>
       </c>
       <c r="AE12" t="n">
         <v>0.9983596650482525</v>
@@ -1726,26 +1970,51 @@
         <v>0.9978375741947847</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.9972041427377816</v>
+        <v>0.9972041427377818</v>
       </c>
       <c r="AH12" t="n">
         <v>0.9951037707047707</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.9923753191835869</v>
+        <v>0.9923753191835871</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.9811298448112883</v>
       </c>
+      <c r="AK12" t="n">
+        <v>0.9993484402843759</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.9993132180291499</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.9993078200444149</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.9993208202900299</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.9991477585313444</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.9989757896469301</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.9987403941159547</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.9973520020895164</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
